--- a/artfynd/A 52381-2025 artfynd.xlsx
+++ b/artfynd/A 52381-2025 artfynd.xlsx
@@ -5720,7 +5720,7 @@
         <v>130694998</v>
       </c>
       <c r="B47" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
